--- a/data/pca/factorExposure/factorExposure_2016-08-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01268009564267006</v>
+        <v>0.01353798785737655</v>
       </c>
       <c r="C2">
-        <v>0.05410116164062927</v>
+        <v>0.04352298619777062</v>
       </c>
       <c r="D2">
-        <v>0.03724407047745919</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06378926510103079</v>
+      </c>
+      <c r="E2">
+        <v>0.05839913671856731</v>
+      </c>
+      <c r="F2">
+        <v>0.07797645311119282</v>
+      </c>
+      <c r="G2">
+        <v>0.03388987513626589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0664783412859951</v>
+        <v>0.03100488992258406</v>
       </c>
       <c r="C3">
-        <v>0.09503425471356594</v>
+        <v>0.08199820960008078</v>
       </c>
       <c r="D3">
-        <v>0.09330097607503625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0895427289759359</v>
+      </c>
+      <c r="E3">
+        <v>0.06867453250704927</v>
+      </c>
+      <c r="F3">
+        <v>-0.0001799456551315525</v>
+      </c>
+      <c r="G3">
+        <v>-0.03724790504275493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06814406865339795</v>
+        <v>0.05756443729244161</v>
       </c>
       <c r="C4">
-        <v>0.05864506083195811</v>
+        <v>0.06630633685390216</v>
       </c>
       <c r="D4">
-        <v>0.02707976314111933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05898068501243668</v>
+      </c>
+      <c r="E4">
+        <v>0.05706355551373065</v>
+      </c>
+      <c r="F4">
+        <v>0.08500984379228919</v>
+      </c>
+      <c r="G4">
+        <v>-0.03901549617939248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04296781433766875</v>
+        <v>0.03529444272043701</v>
       </c>
       <c r="C6">
-        <v>0.03579140905293459</v>
+        <v>0.03169908028097965</v>
       </c>
       <c r="D6">
-        <v>0.03043483528841159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06469110527237529</v>
+      </c>
+      <c r="E6">
+        <v>0.06379436085088951</v>
+      </c>
+      <c r="F6">
+        <v>0.06731030243316181</v>
+      </c>
+      <c r="G6">
+        <v>-0.02315372206327999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02227452946112964</v>
+        <v>0.01895232260387946</v>
       </c>
       <c r="C7">
-        <v>0.04400303160808301</v>
+        <v>0.03897218408333854</v>
       </c>
       <c r="D7">
-        <v>-0.002814943466230242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0362273455091509</v>
+      </c>
+      <c r="E7">
+        <v>0.03832461309139466</v>
+      </c>
+      <c r="F7">
+        <v>0.1049568902024489</v>
+      </c>
+      <c r="G7">
+        <v>-0.008538778505115037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003125777935475589</v>
+        <v>0.00324269343007737</v>
       </c>
       <c r="C8">
-        <v>0.02801269929742309</v>
+        <v>0.02931949034009296</v>
       </c>
       <c r="D8">
-        <v>0.03147247398139894</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03285866313652855</v>
+      </c>
+      <c r="E8">
+        <v>0.04501526495267008</v>
+      </c>
+      <c r="F8">
+        <v>0.04669912276975953</v>
+      </c>
+      <c r="G8">
+        <v>-0.01068841442362625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03778988115288605</v>
+        <v>0.03644003497381003</v>
       </c>
       <c r="C9">
-        <v>0.04328729352389075</v>
+        <v>0.05287202266145358</v>
       </c>
       <c r="D9">
-        <v>0.01379422153094994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04302210047289567</v>
+      </c>
+      <c r="E9">
+        <v>0.0476850510644275</v>
+      </c>
+      <c r="F9">
+        <v>0.08967749149311145</v>
+      </c>
+      <c r="G9">
+        <v>-0.02390638049029398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06668492602242597</v>
+        <v>0.09925295436807938</v>
       </c>
       <c r="C10">
-        <v>-0.1971607974953463</v>
+        <v>-0.1953248688788217</v>
       </c>
       <c r="D10">
-        <v>-0.001733282633402693</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.002159884586891457</v>
+      </c>
+      <c r="E10">
+        <v>0.04561231031297325</v>
+      </c>
+      <c r="F10">
+        <v>0.04070357703834851</v>
+      </c>
+      <c r="G10">
+        <v>-0.009718647950267304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04299818290667809</v>
+        <v>0.03640762707412076</v>
       </c>
       <c r="C11">
-        <v>0.05349938891324364</v>
+        <v>0.05150122358876393</v>
       </c>
       <c r="D11">
-        <v>0.009531946424654495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03328632715453134</v>
+      </c>
+      <c r="E11">
+        <v>0.009085181421732064</v>
+      </c>
+      <c r="F11">
+        <v>0.06556454357432001</v>
+      </c>
+      <c r="G11">
+        <v>-0.01583523911075212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04257885582426481</v>
+        <v>0.03719196961357176</v>
       </c>
       <c r="C12">
-        <v>0.04861054049774664</v>
+        <v>0.04773588699747059</v>
       </c>
       <c r="D12">
-        <v>0.001748062739368155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02516735681572634</v>
+      </c>
+      <c r="E12">
+        <v>0.01759665886807302</v>
+      </c>
+      <c r="F12">
+        <v>0.06783145793102066</v>
+      </c>
+      <c r="G12">
+        <v>-0.01271719137056976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0187574811473698</v>
+        <v>0.01214133666758611</v>
       </c>
       <c r="C13">
-        <v>0.04905684221982996</v>
+        <v>0.04349494480229663</v>
       </c>
       <c r="D13">
-        <v>0.01999087689693857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06007638111820836</v>
+      </c>
+      <c r="E13">
+        <v>0.06911800485664794</v>
+      </c>
+      <c r="F13">
+        <v>0.1097584682820651</v>
+      </c>
+      <c r="G13">
+        <v>-0.0207253561394566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009522315480164417</v>
+        <v>0.004963640002581275</v>
       </c>
       <c r="C14">
-        <v>0.03470317814688412</v>
+        <v>0.03240810787716249</v>
       </c>
       <c r="D14">
-        <v>-0.01564526338584794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02495576624670628</v>
+      </c>
+      <c r="E14">
+        <v>0.03033803378898395</v>
+      </c>
+      <c r="F14">
+        <v>0.09680330855310003</v>
+      </c>
+      <c r="G14">
+        <v>0.006316363790955321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0006345179359269975</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005556200817831976</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006577996195058331</v>
+      </c>
+      <c r="E15">
+        <v>0.0002933758578792721</v>
+      </c>
+      <c r="F15">
+        <v>0.004839580217670902</v>
+      </c>
+      <c r="G15">
+        <v>-0.0006542962114656683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03910805997651177</v>
+        <v>0.03383496067980949</v>
       </c>
       <c r="C16">
-        <v>0.04624426273682054</v>
+        <v>0.04546511247027512</v>
       </c>
       <c r="D16">
-        <v>0.007306086964037773</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02704915451485615</v>
+      </c>
+      <c r="E16">
+        <v>0.02319543519432238</v>
+      </c>
+      <c r="F16">
+        <v>0.06974551868578915</v>
+      </c>
+      <c r="G16">
+        <v>-0.002273503380397363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02870276058100248</v>
+        <v>0.01660351693018933</v>
       </c>
       <c r="C19">
-        <v>0.06166486274294885</v>
+        <v>0.05105543581168446</v>
       </c>
       <c r="D19">
-        <v>0.0758692663365351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09207945196265213</v>
+      </c>
+      <c r="E19">
+        <v>0.08737219030039904</v>
+      </c>
+      <c r="F19">
+        <v>0.08799419107135752</v>
+      </c>
+      <c r="G19">
+        <v>0.02137558109331593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01961587352892018</v>
+        <v>0.01345514470302111</v>
       </c>
       <c r="C20">
-        <v>0.04523875928586301</v>
+        <v>0.04141478183753754</v>
       </c>
       <c r="D20">
-        <v>0.01876881374809955</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03788110525246961</v>
+      </c>
+      <c r="E20">
+        <v>0.06076615468577357</v>
+      </c>
+      <c r="F20">
+        <v>0.08530393524171678</v>
+      </c>
+      <c r="G20">
+        <v>-0.005900589640422753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01461993367322755</v>
+        <v>0.009025706747803886</v>
       </c>
       <c r="C21">
-        <v>0.04785446453038503</v>
+        <v>0.04519260361964688</v>
       </c>
       <c r="D21">
-        <v>0.03637113892651079</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06695363870085745</v>
+      </c>
+      <c r="E21">
+        <v>0.0792190632533817</v>
+      </c>
+      <c r="F21">
+        <v>0.1338602816877402</v>
+      </c>
+      <c r="G21">
+        <v>-0.009228827701312937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001908681839814921</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02312323713729304</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03602843610226953</v>
+      </c>
+      <c r="E22">
+        <v>0.02245046962696582</v>
+      </c>
+      <c r="F22">
+        <v>0.01912826013576785</v>
+      </c>
+      <c r="G22">
+        <v>-0.03908609815727205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001976611491837995</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02324641517804129</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03570401084180225</v>
+      </c>
+      <c r="E23">
+        <v>0.02272018578734271</v>
+      </c>
+      <c r="F23">
+        <v>0.01898354930093409</v>
+      </c>
+      <c r="G23">
+        <v>-0.03928584396111508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03434861320468311</v>
+        <v>0.03355340964364387</v>
       </c>
       <c r="C24">
-        <v>0.05054012894621496</v>
+        <v>0.05362248064195374</v>
       </c>
       <c r="D24">
-        <v>0.005733448321094876</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02601576969685656</v>
+      </c>
+      <c r="E24">
+        <v>0.02055181186056419</v>
+      </c>
+      <c r="F24">
+        <v>0.07776245432742507</v>
+      </c>
+      <c r="G24">
+        <v>-0.01000892352867176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04933787023741552</v>
+        <v>0.04386798010778224</v>
       </c>
       <c r="C25">
-        <v>0.05931671396969693</v>
+        <v>0.05683015199184764</v>
       </c>
       <c r="D25">
-        <v>-0.004933193333928518</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02432587471741904</v>
+      </c>
+      <c r="E25">
+        <v>0.01477623646876795</v>
+      </c>
+      <c r="F25">
+        <v>0.07946775696307413</v>
+      </c>
+      <c r="G25">
+        <v>-0.02699252643742636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01699037408488263</v>
+        <v>0.01378998691808777</v>
       </c>
       <c r="C26">
-        <v>0.01573119140362558</v>
+        <v>0.01735193909764235</v>
       </c>
       <c r="D26">
-        <v>-0.0002992440327753625</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02463402541339368</v>
+      </c>
+      <c r="E26">
+        <v>0.03263125861579699</v>
+      </c>
+      <c r="F26">
+        <v>0.07199507722036176</v>
+      </c>
+      <c r="G26">
+        <v>0.01331549089368024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.07608750256229802</v>
+        <v>0.1337434116772819</v>
       </c>
       <c r="C28">
-        <v>-0.233042095247388</v>
+        <v>-0.2456111475172624</v>
       </c>
       <c r="D28">
-        <v>-0.0004319985831316476</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01787051844098455</v>
+      </c>
+      <c r="E28">
+        <v>0.04869292977437394</v>
+      </c>
+      <c r="F28">
+        <v>0.05543335105628524</v>
+      </c>
+      <c r="G28">
+        <v>-0.02261175443190853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01111366244345203</v>
+        <v>0.00593555514405344</v>
       </c>
       <c r="C29">
-        <v>0.027897183294678</v>
+        <v>0.02784362147377964</v>
       </c>
       <c r="D29">
-        <v>-0.01846421782378186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01938136941358354</v>
+      </c>
+      <c r="E29">
+        <v>0.03173132639712081</v>
+      </c>
+      <c r="F29">
+        <v>0.08938316622692496</v>
+      </c>
+      <c r="G29">
+        <v>-0.006070676245368209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0556883383999548</v>
+        <v>0.04220978313539021</v>
       </c>
       <c r="C30">
-        <v>0.05746846024179203</v>
+        <v>0.06505203144232675</v>
       </c>
       <c r="D30">
-        <v>0.06164746137102745</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1067109586856141</v>
+      </c>
+      <c r="E30">
+        <v>0.04989673110609832</v>
+      </c>
+      <c r="F30">
+        <v>0.1015833865236635</v>
+      </c>
+      <c r="G30">
+        <v>0.01246254105336924</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05528427703617677</v>
+        <v>0.05477553409347044</v>
       </c>
       <c r="C31">
-        <v>0.03331287237417961</v>
+        <v>0.05493187897511338</v>
       </c>
       <c r="D31">
-        <v>-0.02145408410492485</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01158136135067304</v>
+      </c>
+      <c r="E31">
+        <v>0.05090235302916172</v>
+      </c>
+      <c r="F31">
+        <v>0.07821430054009473</v>
+      </c>
+      <c r="G31">
+        <v>-0.04893114030237442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001920458470815131</v>
+        <v>0.005038289110895306</v>
       </c>
       <c r="C32">
-        <v>0.04270256449324169</v>
+        <v>0.03361978715747473</v>
       </c>
       <c r="D32">
-        <v>0.03289076053009566</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0501110919734063</v>
+      </c>
+      <c r="E32">
+        <v>0.02870820803319881</v>
+      </c>
+      <c r="F32">
+        <v>0.07330973526011481</v>
+      </c>
+      <c r="G32">
+        <v>0.009746766564483512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03132450960705363</v>
+        <v>0.02466724406058119</v>
       </c>
       <c r="C33">
-        <v>0.06146744117329527</v>
+        <v>0.05576691632604753</v>
       </c>
       <c r="D33">
-        <v>0.03900314257106995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07749829686681813</v>
+      </c>
+      <c r="E33">
+        <v>0.05874308573553091</v>
+      </c>
+      <c r="F33">
+        <v>0.1250832883880848</v>
+      </c>
+      <c r="G33">
+        <v>-0.02224110553912611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04756959058372674</v>
+        <v>0.0411361921846164</v>
       </c>
       <c r="C34">
-        <v>0.06456831519095561</v>
+        <v>0.06394736511560041</v>
       </c>
       <c r="D34">
-        <v>0.003914191795139919</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03341556849776487</v>
+      </c>
+      <c r="E34">
+        <v>-0.002910328079066239</v>
+      </c>
+      <c r="F34">
+        <v>0.07609977579706614</v>
+      </c>
+      <c r="G34">
+        <v>-0.01190241644323681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01408684418632746</v>
+        <v>0.01299230823733095</v>
       </c>
       <c r="C36">
-        <v>0.01605011977967889</v>
+        <v>0.01291794540143877</v>
       </c>
       <c r="D36">
-        <v>-0.001302959139731232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02621031654115531</v>
+      </c>
+      <c r="E36">
+        <v>0.03836187463231115</v>
+      </c>
+      <c r="F36">
+        <v>0.07940835909817841</v>
+      </c>
+      <c r="G36">
+        <v>-0.01026049223349108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0321135347439115</v>
+        <v>0.02449808990367789</v>
       </c>
       <c r="C38">
-        <v>0.02920691487475437</v>
+        <v>0.02501939897690363</v>
       </c>
       <c r="D38">
-        <v>-0.004376983778669879</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02498656796086577</v>
+      </c>
+      <c r="E38">
+        <v>0.037201706462228</v>
+      </c>
+      <c r="F38">
+        <v>0.06802571505929206</v>
+      </c>
+      <c r="G38">
+        <v>-0.005649743713764825</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04714669374318173</v>
+        <v>0.03940523603638139</v>
       </c>
       <c r="C39">
-        <v>0.07167561735065676</v>
+        <v>0.06866934284861075</v>
       </c>
       <c r="D39">
-        <v>0.02183463994394102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05167109271666477</v>
+      </c>
+      <c r="E39">
+        <v>0.02260888090283227</v>
+      </c>
+      <c r="F39">
+        <v>0.0902900921160871</v>
+      </c>
+      <c r="G39">
+        <v>0.01344356740684685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01766363157842911</v>
+        <v>0.01551944022636813</v>
       </c>
       <c r="C40">
-        <v>0.03942106951809324</v>
+        <v>0.04065772079125836</v>
       </c>
       <c r="D40">
-        <v>0.0348534388450628</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03724666865464724</v>
+      </c>
+      <c r="E40">
+        <v>0.07637983716895649</v>
+      </c>
+      <c r="F40">
+        <v>0.07962222043618551</v>
+      </c>
+      <c r="G40">
+        <v>-0.04413048759250813</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01651988731015436</v>
+        <v>0.01747225736391968</v>
       </c>
       <c r="C41">
-        <v>0.0115055001536462</v>
+        <v>0.006643370122795384</v>
       </c>
       <c r="D41">
-        <v>-0.002626516589879355</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01405980558722995</v>
+      </c>
+      <c r="E41">
+        <v>0.04168776926324819</v>
+      </c>
+      <c r="F41">
+        <v>0.06936326032751555</v>
+      </c>
+      <c r="G41">
+        <v>-0.003508833258559264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.00106992745261398</v>
+        <v>0.0007794106386998549</v>
       </c>
       <c r="C42">
-        <v>0.007909219182309898</v>
+        <v>0.004400001863073676</v>
       </c>
       <c r="D42">
-        <v>0.005440467079702637</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0006921185153515386</v>
+      </c>
+      <c r="E42">
+        <v>0.00710049602999421</v>
+      </c>
+      <c r="F42">
+        <v>-0.00639168325059121</v>
+      </c>
+      <c r="G42">
+        <v>0.0005895598630011929</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03706038242620942</v>
+        <v>0.02868645254040568</v>
       </c>
       <c r="C43">
-        <v>0.02568118951102096</v>
+        <v>0.02185957366701317</v>
       </c>
       <c r="D43">
-        <v>0.01534611185146721</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03842421121376323</v>
+      </c>
+      <c r="E43">
+        <v>0.04974303086832632</v>
+      </c>
+      <c r="F43">
+        <v>0.08137341208434744</v>
+      </c>
+      <c r="G43">
+        <v>-0.02290456487223458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0223645936457364</v>
+        <v>0.01411213014766241</v>
       </c>
       <c r="C44">
-        <v>0.05663724341884991</v>
+        <v>0.05250077990257668</v>
       </c>
       <c r="D44">
-        <v>0.01642138436171785</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03884327332088797</v>
+      </c>
+      <c r="E44">
+        <v>0.06351248917437961</v>
+      </c>
+      <c r="F44">
+        <v>0.08411794009156594</v>
+      </c>
+      <c r="G44">
+        <v>0.002710655217565177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006721614097991436</v>
+        <v>0.007558305901738613</v>
       </c>
       <c r="C46">
-        <v>0.02285181299756746</v>
+        <v>0.02602627265961401</v>
       </c>
       <c r="D46">
-        <v>-0.02353361768219022</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.00983180402878021</v>
+      </c>
+      <c r="E46">
+        <v>0.03794945904676312</v>
+      </c>
+      <c r="F46">
+        <v>0.1013574426747496</v>
+      </c>
+      <c r="G46">
+        <v>-0.001374211143872041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08554821084331571</v>
+        <v>0.08711157477145995</v>
       </c>
       <c r="C47">
-        <v>0.0665283405069266</v>
+        <v>0.07990059551264408</v>
       </c>
       <c r="D47">
-        <v>-0.01845922231844559</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01862864651808943</v>
+      </c>
+      <c r="E47">
+        <v>0.05692413912174782</v>
+      </c>
+      <c r="F47">
+        <v>0.07713538520599017</v>
+      </c>
+      <c r="G47">
+        <v>-0.05171995212085242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02055373645997382</v>
+        <v>0.01575044626694051</v>
       </c>
       <c r="C48">
-        <v>0.0141163576138009</v>
+        <v>0.01802393102336863</v>
       </c>
       <c r="D48">
-        <v>-0.01129420551557395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01577368557646067</v>
+      </c>
+      <c r="E48">
+        <v>0.05014200921870087</v>
+      </c>
+      <c r="F48">
+        <v>0.09392257181991047</v>
+      </c>
+      <c r="G48">
+        <v>-0.009924461666927372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08602226316903121</v>
+        <v>0.07097764230033483</v>
       </c>
       <c r="C50">
-        <v>0.06719731807046322</v>
+        <v>0.0717221597496198</v>
       </c>
       <c r="D50">
-        <v>-0.02802914630466665</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.007056402961871143</v>
+      </c>
+      <c r="E50">
+        <v>0.05567267984451594</v>
+      </c>
+      <c r="F50">
+        <v>0.068011721462322</v>
+      </c>
+      <c r="G50">
+        <v>-0.07337814250719109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01830566278649019</v>
+        <v>0.01081574667512449</v>
       </c>
       <c r="C51">
-        <v>0.04715414360152296</v>
+        <v>0.03418936024205169</v>
       </c>
       <c r="D51">
-        <v>0.01516848224277816</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04743545456454632</v>
+      </c>
+      <c r="E51">
+        <v>0.02694890615229749</v>
+      </c>
+      <c r="F51">
+        <v>0.08136282847114658</v>
+      </c>
+      <c r="G51">
+        <v>0.01871138332303236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08715221798191949</v>
+        <v>0.0939457614536878</v>
       </c>
       <c r="C53">
-        <v>0.07097360208547854</v>
+        <v>0.08621292843561403</v>
       </c>
       <c r="D53">
-        <v>-0.03444857267365634</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0412201857213992</v>
+      </c>
+      <c r="E53">
+        <v>0.05402291783802519</v>
+      </c>
+      <c r="F53">
+        <v>0.0865295908361694</v>
+      </c>
+      <c r="G53">
+        <v>-0.06398889551673995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03428367483089399</v>
+        <v>0.02815507904685828</v>
       </c>
       <c r="C54">
-        <v>0.02325514809995703</v>
+        <v>0.0267726499921117</v>
       </c>
       <c r="D54">
-        <v>0.0009470904647833031</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03031706058763371</v>
+      </c>
+      <c r="E54">
+        <v>0.04542334560287414</v>
+      </c>
+      <c r="F54">
+        <v>0.09455238223632498</v>
+      </c>
+      <c r="G54">
+        <v>-0.00659732892650357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0785416845914149</v>
+        <v>0.08527180555468854</v>
       </c>
       <c r="C55">
-        <v>0.05561016829061237</v>
+        <v>0.07001727420307934</v>
       </c>
       <c r="D55">
-        <v>-0.03915680639418174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04826493814506677</v>
+      </c>
+      <c r="E55">
+        <v>0.04437098842414509</v>
+      </c>
+      <c r="F55">
+        <v>0.06044847159358381</v>
+      </c>
+      <c r="G55">
+        <v>-0.05214502251424891</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1519858773237907</v>
+        <v>0.1468132926021557</v>
       </c>
       <c r="C56">
-        <v>0.08510152621243738</v>
+        <v>0.1037831349785549</v>
       </c>
       <c r="D56">
-        <v>-0.04351982482767876</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05189637907981487</v>
+      </c>
+      <c r="E56">
+        <v>0.0466474847306409</v>
+      </c>
+      <c r="F56">
+        <v>0.0468468809755521</v>
+      </c>
+      <c r="G56">
+        <v>-0.0596469654795663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.001950246912018228</v>
+        <v>0.0008846555657446871</v>
       </c>
       <c r="C57">
-        <v>0.002642128224721399</v>
+        <v>0.001767101965443946</v>
       </c>
       <c r="D57">
-        <v>0.02016531085029469</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01507280058395454</v>
+      </c>
+      <c r="E57">
+        <v>0.01032045020573815</v>
+      </c>
+      <c r="F57">
+        <v>0.007334104683013023</v>
+      </c>
+      <c r="G57">
+        <v>-0.005233619267118923</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.07041144188865155</v>
+        <v>0.02836143218822022</v>
       </c>
       <c r="C58">
-        <v>0.02512184921913463</v>
+        <v>0.04064900333250101</v>
       </c>
       <c r="D58">
-        <v>0.8617765731606811</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4512464430435358</v>
+      </c>
+      <c r="E58">
+        <v>0.6939697711377126</v>
+      </c>
+      <c r="F58">
+        <v>-0.4769319357063336</v>
+      </c>
+      <c r="G58">
+        <v>0.06074146746389496</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.124928125850243</v>
+        <v>0.1442463806504139</v>
       </c>
       <c r="C59">
-        <v>-0.2064111105436104</v>
+        <v>-0.1868098041119693</v>
       </c>
       <c r="D59">
-        <v>0.02157364972410101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03298762439859586</v>
+      </c>
+      <c r="E59">
+        <v>0.0297162865501646</v>
+      </c>
+      <c r="F59">
+        <v>0.02275217903591006</v>
+      </c>
+      <c r="G59">
+        <v>0.02852720151840954</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3144735982437855</v>
+        <v>0.2836248598089955</v>
       </c>
       <c r="C60">
-        <v>0.06978139774368892</v>
+        <v>0.09679886508104901</v>
       </c>
       <c r="D60">
-        <v>0.05463268934438141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2135368886705601</v>
+      </c>
+      <c r="E60">
+        <v>-0.2671047876740135</v>
+      </c>
+      <c r="F60">
+        <v>-0.1087040685517624</v>
+      </c>
+      <c r="G60">
+        <v>-0.04388147487876848</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04395350207494485</v>
+        <v>0.04085709125901529</v>
       </c>
       <c r="C61">
-        <v>0.06291707373112894</v>
+        <v>0.062188987568407</v>
       </c>
       <c r="D61">
-        <v>0.01117116089467231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04423872765438509</v>
+      </c>
+      <c r="E61">
+        <v>0.02615453012519336</v>
+      </c>
+      <c r="F61">
+        <v>0.08156673463109898</v>
+      </c>
+      <c r="G61">
+        <v>-0.01280660431838975</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01744856228583918</v>
+        <v>0.01508299301202958</v>
       </c>
       <c r="C63">
-        <v>0.03538087535932025</v>
+        <v>0.03294120936478376</v>
       </c>
       <c r="D63">
-        <v>-0.004740777900829387</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02173140086469185</v>
+      </c>
+      <c r="E63">
+        <v>0.04126858351361246</v>
+      </c>
+      <c r="F63">
+        <v>0.07457289076325065</v>
+      </c>
+      <c r="G63">
+        <v>-0.028871942911285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05175934209825114</v>
+        <v>0.05563616537105572</v>
       </c>
       <c r="C64">
-        <v>0.03831399886696782</v>
+        <v>0.05436638492718289</v>
       </c>
       <c r="D64">
-        <v>-0.008449253875677614</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.005390214843681769</v>
+      </c>
+      <c r="E64">
+        <v>0.02278492006756317</v>
+      </c>
+      <c r="F64">
+        <v>0.08497179939690264</v>
+      </c>
+      <c r="G64">
+        <v>-0.01071307302489444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09378803072780145</v>
+        <v>0.0692654097312832</v>
       </c>
       <c r="C65">
-        <v>0.02238057424720036</v>
+        <v>0.03241379489558378</v>
       </c>
       <c r="D65">
-        <v>0.04341081089636432</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08541135120015191</v>
+      </c>
+      <c r="E65">
+        <v>0.03648698522847969</v>
+      </c>
+      <c r="F65">
+        <v>0.01619796528215188</v>
+      </c>
+      <c r="G65">
+        <v>-0.001521212841083024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06764630121829507</v>
+        <v>0.05223932333639648</v>
       </c>
       <c r="C66">
-        <v>0.1004299004506221</v>
+        <v>0.090845275473177</v>
       </c>
       <c r="D66">
-        <v>0.0376426092180242</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07897540975725657</v>
+      </c>
+      <c r="E66">
+        <v>0.02841205643509533</v>
+      </c>
+      <c r="F66">
+        <v>0.09180120169896801</v>
+      </c>
+      <c r="G66">
+        <v>-0.003866692256148696</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05357665064264278</v>
+        <v>0.046516137978971</v>
       </c>
       <c r="C67">
-        <v>0.03274718382468448</v>
+        <v>0.03081309112700711</v>
       </c>
       <c r="D67">
-        <v>-0.008192782705806451</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01157085252963652</v>
+      </c>
+      <c r="E67">
+        <v>0.01923643936824021</v>
+      </c>
+      <c r="F67">
+        <v>0.05375539656389292</v>
+      </c>
+      <c r="G67">
+        <v>-0.01228926160471726</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1058901159170145</v>
+        <v>0.1494506686182704</v>
       </c>
       <c r="C68">
-        <v>-0.2929166817016531</v>
+        <v>-0.25209488028413</v>
       </c>
       <c r="D68">
-        <v>-0.004422278723376375</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0185424988434194</v>
+      </c>
+      <c r="E68">
+        <v>0.04268540067265553</v>
+      </c>
+      <c r="F68">
+        <v>0.01501346350467737</v>
+      </c>
+      <c r="G68">
+        <v>-0.01070389406790362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09269696570454118</v>
+        <v>0.08713425964042827</v>
       </c>
       <c r="C69">
-        <v>0.06527493141250641</v>
+        <v>0.08544837364087496</v>
       </c>
       <c r="D69">
-        <v>-0.04122471224714579</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01241776984650578</v>
+      </c>
+      <c r="E69">
+        <v>0.03462713147433522</v>
+      </c>
+      <c r="F69">
+        <v>0.09592595010307119</v>
+      </c>
+      <c r="G69">
+        <v>-0.02938110084400325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1024959563189296</v>
+        <v>0.1417931862877344</v>
       </c>
       <c r="C71">
-        <v>-0.2520495827280707</v>
+        <v>-0.2334258206163677</v>
       </c>
       <c r="D71">
-        <v>0.02718016689270068</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01478203171669824</v>
+      </c>
+      <c r="E71">
+        <v>0.06726888618496087</v>
+      </c>
+      <c r="F71">
+        <v>0.05476815273190134</v>
+      </c>
+      <c r="G71">
+        <v>-0.03509011542314062</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09020526798575873</v>
+        <v>0.0974192921586744</v>
       </c>
       <c r="C72">
-        <v>0.04521468283378255</v>
+        <v>0.05468735309341427</v>
       </c>
       <c r="D72">
-        <v>-0.006024733861584142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02234559792010291</v>
+      </c>
+      <c r="E72">
+        <v>0.01326701493359139</v>
+      </c>
+      <c r="F72">
+        <v>0.07852675924378046</v>
+      </c>
+      <c r="G72">
+        <v>-0.02877843699910357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4234197234825199</v>
+        <v>0.347137008264999</v>
       </c>
       <c r="C73">
-        <v>0.036575274896154</v>
+        <v>0.07795852208861481</v>
       </c>
       <c r="D73">
-        <v>0.2045728818379325</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4553713571611336</v>
+      </c>
+      <c r="E73">
+        <v>-0.4713555967229524</v>
+      </c>
+      <c r="F73">
+        <v>-0.2807692755813484</v>
+      </c>
+      <c r="G73">
+        <v>-0.0980744399673795</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1164753016122349</v>
+        <v>0.1116587812951736</v>
       </c>
       <c r="C74">
-        <v>0.09736700432795063</v>
+        <v>0.09916969773571546</v>
       </c>
       <c r="D74">
-        <v>-0.01776519362291697</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03189611619912667</v>
+      </c>
+      <c r="E74">
+        <v>0.06384537523872814</v>
+      </c>
+      <c r="F74">
+        <v>0.04983759828279746</v>
+      </c>
+      <c r="G74">
+        <v>-0.07286607258816807</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2519995566438864</v>
+        <v>0.2576173434775523</v>
       </c>
       <c r="C75">
-        <v>0.103544068920316</v>
+        <v>0.1320077068470147</v>
       </c>
       <c r="D75">
-        <v>-0.07002427263256571</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1306165669461138</v>
+      </c>
+      <c r="E75">
+        <v>0.07052339107708276</v>
+      </c>
+      <c r="F75">
+        <v>0.01547962851525798</v>
+      </c>
+      <c r="G75">
+        <v>-0.07679695469275093</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1172146813793</v>
+        <v>0.1288306723902147</v>
       </c>
       <c r="C76">
-        <v>0.08745034557141496</v>
+        <v>0.1002939314063517</v>
       </c>
       <c r="D76">
-        <v>-0.03450269181204967</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05904831009781036</v>
+      </c>
+      <c r="E76">
+        <v>0.06749158396575984</v>
+      </c>
+      <c r="F76">
+        <v>0.06797451704693129</v>
+      </c>
+      <c r="G76">
+        <v>-0.06247084151479663</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08008474841446886</v>
+        <v>0.06257052159209517</v>
       </c>
       <c r="C77">
-        <v>0.05225481173566322</v>
+        <v>0.0696888552338444</v>
       </c>
       <c r="D77">
-        <v>0.05482759491869977</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0639468459289128</v>
+      </c>
+      <c r="E77">
+        <v>0.07367568923029055</v>
+      </c>
+      <c r="F77">
+        <v>0.1228183338606599</v>
+      </c>
+      <c r="G77">
+        <v>0.1355227047391532</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05119972362667916</v>
+        <v>0.0435255707338975</v>
       </c>
       <c r="C78">
-        <v>0.0391805388465469</v>
+        <v>0.05635544688410392</v>
       </c>
       <c r="D78">
-        <v>0.01915699782092915</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07111629788173257</v>
+      </c>
+      <c r="E78">
+        <v>0.03008335629402759</v>
+      </c>
+      <c r="F78">
+        <v>0.1023104100111502</v>
+      </c>
+      <c r="G78">
+        <v>-0.005525603846639285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02538210678947421</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0376644247802729</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06019866049732482</v>
+      </c>
+      <c r="E79">
+        <v>0.0505664676306241</v>
+      </c>
+      <c r="F79">
+        <v>0.04174452766076976</v>
+      </c>
+      <c r="G79">
+        <v>-0.06733148397627034</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04567563229814633</v>
+        <v>0.03489736333200515</v>
       </c>
       <c r="C80">
-        <v>0.05056156778228382</v>
+        <v>0.05536851128762308</v>
       </c>
       <c r="D80">
-        <v>0.03039193936986486</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0450868078985883</v>
+      </c>
+      <c r="E80">
+        <v>0.01197915158829658</v>
+      </c>
+      <c r="F80">
+        <v>0.03716664383732211</v>
+      </c>
+      <c r="G80">
+        <v>0.04627196028804759</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1421013575512599</v>
+        <v>0.1409829672493241</v>
       </c>
       <c r="C81">
-        <v>0.07142698116589688</v>
+        <v>0.09551490013478818</v>
       </c>
       <c r="D81">
-        <v>-0.04228792177378917</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09878189528569001</v>
+      </c>
+      <c r="E81">
+        <v>0.08098714552073528</v>
+      </c>
+      <c r="F81">
+        <v>0.01453993157647494</v>
+      </c>
+      <c r="G81">
+        <v>-0.05608400589846865</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1579763621320427</v>
+        <v>0.2013621394873406</v>
       </c>
       <c r="C82">
-        <v>0.05390269874426028</v>
+        <v>0.1347172967884497</v>
       </c>
       <c r="D82">
-        <v>-0.1426162011473659</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2338558134499021</v>
+      </c>
+      <c r="E82">
+        <v>0.005733450460640365</v>
+      </c>
+      <c r="F82">
+        <v>0.08493414454353514</v>
+      </c>
+      <c r="G82">
+        <v>-0.04404644903298892</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03688533092199195</v>
+        <v>0.02795251564045857</v>
       </c>
       <c r="C83">
-        <v>0.02122781963930593</v>
+        <v>0.04096986203561796</v>
       </c>
       <c r="D83">
-        <v>0.02778413103107142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03320270960415181</v>
+      </c>
+      <c r="E83">
+        <v>0.01241916686329743</v>
+      </c>
+      <c r="F83">
+        <v>0.04791259149249702</v>
+      </c>
+      <c r="G83">
+        <v>0.01990309311465547</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2211781204186319</v>
+        <v>0.2047753705985145</v>
       </c>
       <c r="C85">
-        <v>0.09904261733655156</v>
+        <v>0.1190666212462792</v>
       </c>
       <c r="D85">
-        <v>-0.09780758023779301</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09907563369805196</v>
+      </c>
+      <c r="E85">
+        <v>0.003181502890018533</v>
+      </c>
+      <c r="F85">
+        <v>-0.02281857975555212</v>
+      </c>
+      <c r="G85">
+        <v>-0.1286970003436025</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01366247694667548</v>
+        <v>0.01144095178101522</v>
       </c>
       <c r="C86">
-        <v>0.03505900991305641</v>
+        <v>0.03135221440986646</v>
       </c>
       <c r="D86">
-        <v>0.04093397118423502</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0691104241318802</v>
+      </c>
+      <c r="E86">
+        <v>0.05059004256288435</v>
+      </c>
+      <c r="F86">
+        <v>0.137077942775118</v>
+      </c>
+      <c r="G86">
+        <v>0.008583477118542897</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.0241309017603846</v>
+        <v>0.02147562661519463</v>
       </c>
       <c r="C87">
-        <v>0.01832941066485652</v>
+        <v>0.02210828787734872</v>
       </c>
       <c r="D87">
-        <v>0.09507802344954684</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09047236348344537</v>
+      </c>
+      <c r="E87">
+        <v>0.09596880013294103</v>
+      </c>
+      <c r="F87">
+        <v>0.08983824961723129</v>
+      </c>
+      <c r="G87">
+        <v>0.03640027858771528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1068927835115636</v>
+        <v>0.09184176538430799</v>
       </c>
       <c r="C88">
-        <v>0.06927016622465454</v>
+        <v>0.062682544461239</v>
       </c>
       <c r="D88">
-        <v>-0.02294087090109912</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.007674443940974014</v>
+      </c>
+      <c r="E88">
+        <v>0.03594516028815914</v>
+      </c>
+      <c r="F88">
+        <v>0.07296725659128488</v>
+      </c>
+      <c r="G88">
+        <v>0.02888871708618223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1647732887917984</v>
+        <v>0.2214907118223339</v>
       </c>
       <c r="C89">
-        <v>-0.3852536868976634</v>
+        <v>-0.3807292773211723</v>
       </c>
       <c r="D89">
-        <v>-0.02604363986106482</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01343674451149833</v>
+      </c>
+      <c r="E89">
+        <v>0.03947745847130921</v>
+      </c>
+      <c r="F89">
+        <v>0.09544983906473284</v>
+      </c>
+      <c r="G89">
+        <v>0.06304170442204353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1596936553983602</v>
+        <v>0.1997848512161932</v>
       </c>
       <c r="C90">
-        <v>-0.3535032191342566</v>
+        <v>-0.3155183789225252</v>
       </c>
       <c r="D90">
-        <v>-0.01793469516833723</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01388723814893652</v>
+      </c>
+      <c r="E90">
+        <v>0.06732733257733015</v>
+      </c>
+      <c r="F90">
+        <v>0.0443857748568906</v>
+      </c>
+      <c r="G90">
+        <v>0.01120820324392203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.193605943355569</v>
+        <v>0.1867074155286764</v>
       </c>
       <c r="C91">
-        <v>0.1131933261616154</v>
+        <v>0.1393457322743162</v>
       </c>
       <c r="D91">
-        <v>-0.06682445499997097</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.108337141025183</v>
+      </c>
+      <c r="E91">
+        <v>0.06193526974050045</v>
+      </c>
+      <c r="F91">
+        <v>0.03506583874202993</v>
+      </c>
+      <c r="G91">
+        <v>-0.06079222584805975</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1552787000928153</v>
+        <v>0.1814912041377857</v>
       </c>
       <c r="C92">
-        <v>-0.2944689315863335</v>
+        <v>-0.2837507350092631</v>
       </c>
       <c r="D92">
-        <v>-0.01053847784447683</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.002043739927137512</v>
+      </c>
+      <c r="E92">
+        <v>0.06962792374567026</v>
+      </c>
+      <c r="F92">
+        <v>0.08264189830415018</v>
+      </c>
+      <c r="G92">
+        <v>0.007272789710886607</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1824575537670211</v>
+        <v>0.2238267645103184</v>
       </c>
       <c r="C93">
-        <v>-0.349089516588381</v>
+        <v>-0.3198105363277833</v>
       </c>
       <c r="D93">
-        <v>-0.008360967410394264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.000348956620202363</v>
+      </c>
+      <c r="E93">
+        <v>0.05299379999945809</v>
+      </c>
+      <c r="F93">
+        <v>0.03995030812351209</v>
+      </c>
+      <c r="G93">
+        <v>-0.0269815042739871</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3382433582216758</v>
+        <v>0.3428152203670239</v>
       </c>
       <c r="C94">
-        <v>0.1303849168773695</v>
+        <v>0.1832130234458806</v>
       </c>
       <c r="D94">
-        <v>-0.3094680438700193</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4842048055943746</v>
+      </c>
+      <c r="E94">
+        <v>0.108812025143922</v>
+      </c>
+      <c r="F94">
+        <v>-0.4387627094836679</v>
+      </c>
+      <c r="G94">
+        <v>0.3338896318241935</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1116059521950483</v>
+        <v>0.08566131018245357</v>
       </c>
       <c r="C95">
-        <v>0.07064888847043391</v>
+        <v>0.06722189438425813</v>
       </c>
       <c r="D95">
-        <v>0.06417651778386485</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1622626036763863</v>
+      </c>
+      <c r="E95">
+        <v>-0.1192273082399543</v>
+      </c>
+      <c r="F95">
+        <v>0.2112266238843366</v>
+      </c>
+      <c r="G95">
+        <v>0.8646950405056849</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.197216442426407</v>
+        <v>0.1875736448915203</v>
       </c>
       <c r="C98">
-        <v>0.01356441688848775</v>
+        <v>0.04326357249511781</v>
       </c>
       <c r="D98">
-        <v>0.08246179405362548</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1834711180884637</v>
+      </c>
+      <c r="E98">
+        <v>-0.1513145239981134</v>
+      </c>
+      <c r="F98">
+        <v>-0.04354315933849413</v>
+      </c>
+      <c r="G98">
+        <v>-0.101334064440291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01103853169612692</v>
+        <v>0.005983959463402223</v>
       </c>
       <c r="C101">
-        <v>0.02790348846602313</v>
+        <v>0.02759047873496318</v>
       </c>
       <c r="D101">
-        <v>-0.01879000145705283</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01886884295702875</v>
+      </c>
+      <c r="E101">
+        <v>0.03241890423475408</v>
+      </c>
+      <c r="F101">
+        <v>0.08917838662822793</v>
+      </c>
+      <c r="G101">
+        <v>-0.004997698361466059</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1243910504237753</v>
+        <v>0.1246572404395914</v>
       </c>
       <c r="C102">
-        <v>0.07095134928776689</v>
+        <v>0.09942011484344845</v>
       </c>
       <c r="D102">
-        <v>-0.03316586825598111</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04964054612247192</v>
+      </c>
+      <c r="E102">
+        <v>-0.008489707123982853</v>
+      </c>
+      <c r="F102">
+        <v>0.03934939797951908</v>
+      </c>
+      <c r="G102">
+        <v>-0.02335099380546924</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
